--- a/output/fit_clients/fit_round_3.xlsx
+++ b/output/fit_clients/fit_round_3.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>11292309823.75937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.1101820858104816</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.356867695537292e-06</v>
+        <v>0.01233621238767949</v>
       </c>
       <c r="I2" t="n">
-        <v>6.129549916585287</v>
+        <v>14.47824270819662</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>8190325565.029963</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.1774973947564539</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.39505730781354e-06</v>
+        <v>0.2501668642957143</v>
       </c>
       <c r="I3" t="n">
-        <v>6.138156270980835</v>
+        <v>8.177206656575203</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>8506501470.073679</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.1745951770213632</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.701549999242025e-06</v>
+        <v>0.2399130847807204</v>
       </c>
       <c r="I4" t="n">
-        <v>6.116910044352213</v>
+        <v>8.641224858471036</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>9622552361.501713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.1508063563058162</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.428969092183087e-06</v>
+        <v>0.1558651790741177</v>
       </c>
       <c r="I5" t="n">
-        <v>6.122776699066162</v>
+        <v>8.868781996490004</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>7901207841.665234</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.1548187510711262</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.681884835170098e-05</v>
+        <v>0.170041307471775</v>
       </c>
       <c r="I6" t="n">
-        <v>6.131330442428589</v>
+        <v>14.23439862047962</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>10662085867.3358</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1103073192838468</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.583707674136945e-06</v>
+        <v>0.01277867278899827</v>
       </c>
       <c r="I7" t="n">
-        <v>6.133467038472493</v>
+        <v>13.68574942311638</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>9809356334.89653</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.155945375799842</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.492959461286245e-06</v>
+        <v>0.1740217674575005</v>
       </c>
       <c r="I8" t="n">
-        <v>6.122408707936605</v>
+        <v>8.900309201670343</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>9388973867.872164</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.1238696769600845</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.483766959579011e-05</v>
+        <v>0.06069562389648565</v>
       </c>
       <c r="I9" t="n">
-        <v>6.138887786865234</v>
+        <v>13.53334686829326</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>3716740619.404071</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.389729286579124</v>
       </c>
       <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.609355795784629e-05</v>
-      </c>
       <c r="I10" t="n">
-        <v>6.12138950030009</v>
+        <v>7.639038735053625</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>7633809256.641013</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1410264854421718</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.982125123631693e-06</v>
+        <v>0.1213120722177893</v>
       </c>
       <c r="I11" t="n">
-        <v>6.120005893707275</v>
+        <v>12.52749000646065</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>8049836256.557895</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.1574919935752959</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.940671864373445e-06</v>
+        <v>0.1794860982248745</v>
       </c>
       <c r="I12" t="n">
-        <v>6.150486437479654</v>
+        <v>14.75256730687824</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>11059903713.08821</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.112023712153462</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.132155077106678e-06</v>
+        <v>0.01884283325268319</v>
       </c>
       <c r="I13" t="n">
-        <v>6.134679746627808</v>
+        <v>14.41728168626737</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>3664117013.324485</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.3781695030374538</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.469042523386132e-06</v>
+        <v>0.9591583118509076</v>
       </c>
       <c r="I14" t="n">
-        <v>6.121362733840942</v>
+        <v>8.360745637096949</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>8498184427.482604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.1729166744425785</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.312703252180038e-05</v>
+        <v>0.2339827939034688</v>
       </c>
       <c r="I15" t="n">
-        <v>6.150437990824382</v>
+        <v>8.549783325577161</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>7412753476.376842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.2109574849593315</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.864942290339002e-06</v>
+        <v>0.3683841790560022</v>
       </c>
       <c r="I16" t="n">
-        <v>6.14699649810791</v>
+        <v>9.098432522940403</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>10064051855.97146</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.1153004561787396</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.733595991277156e-06</v>
+        <v>0.03041984567184927</v>
       </c>
       <c r="I17" t="n">
-        <v>6.157148202260335</v>
+        <v>13.50286635732864</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>6323086295.072472</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1930442956236785</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.455344780001586e-06</v>
+        <v>0.3050953735204029</v>
       </c>
       <c r="I18" t="n">
-        <v>6.1598038037618</v>
+        <v>14.203918109515</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>8587867964.083879</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.1531152767484674</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>4.117674069069714e-06</v>
+        <v>0.16402278932174</v>
       </c>
       <c r="I19" t="n">
-        <v>6.104848178227743</v>
+        <v>15.30121650424148</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>5224448830.845752</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.2933023558299334</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.204041201712412e-06</v>
+        <v>0.6593155381641738</v>
       </c>
       <c r="I20" t="n">
-        <v>6.138874244689942</v>
+        <v>8.915549457152656</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>11925185503.69001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.1186120416795462</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.878141828872274e-06</v>
+        <v>0.04211995595639334</v>
       </c>
       <c r="I21" t="n">
-        <v>6.126142040888468</v>
+        <v>8.648286912176344</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>9701973570.837902</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.1479519305550974</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.493648870163469e-05</v>
+        <v>0.145780252662187</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>7.930650078526393</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>8132102688.821662</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.1539661349482324</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.279118604263798e-06</v>
+        <v>0.1670289429515754</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>14.56968424109049</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>9802247206.349567</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.1402922943127985</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.864616986064629e-05</v>
+        <v>0.1187181131666009</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>8.223883014400716</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>10023388526.05736</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.1319705353694708</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.555844688771589e-06</v>
+        <v>0.08931663844260258</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>15.39265803713535</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>5645793177.650091</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1939328957947632</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.479692306743748e-06</v>
+        <v>0.3082348727113564</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>12.74085358321303</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>4725338240.828137</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.3098696718361023</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.602833324985162e-06</v>
+        <v>0.717849259955097</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>8.275812130835321</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>4800927731.150856</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.2400643510048672</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.009803397221871e-06</v>
+        <v>0.4712211864916458</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>13.41142482443476</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>6022199283.699685</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.2266119279203938</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.552258613471771e-05</v>
+        <v>0.4236926435491944</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>8.452630194189197</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>5255751489.147487</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.2930506366559256</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.116527557263293e-06</v>
+        <v>0.6584261931371747</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>8.961270223599591</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>4450547673.565145</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.3307676465851146</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.480021572139547e-06</v>
+        <v>0.7916835635620868</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>8.565023581059474</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>6965150327.76018</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.1684797405338076</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.664096805232753e-06</v>
+        <v>0.2183067329818322</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>13.65526891215176</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>9139799848.286011</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.120081886717226</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>3.257277172352092e-05</v>
+        <v>0.04731304217985173</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>12.77133409417765</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>8478910339.406067</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1658954244937246</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.343930912827548e-06</v>
+        <v>0.2091761269105946</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>8.016902196481208</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>10224172675.2551</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.121436804662439</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.357102536664804e-05</v>
+        <v>0.05210008131311238</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>14.447762197232</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>4681403624.375084</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.3301232331160719</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.376695665556014e-06</v>
+        <v>0.7894067965407287</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>8.991750734564217</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>5319910059.562745</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.2260000632602461</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>7.425789014493244e-06</v>
+        <v>0.4215308742090403</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>13.99055453276263</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>6895834692.353999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.1553590765723946</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.881722528270298e-06</v>
+        <v>0.1719503229427184</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>12.46652898453141</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>7090996415.901412</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.164381489093141</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>9.035509580705963e-06</v>
+        <v>0.2038272657242568</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>13.56382737925789</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>9532563616.509947</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.1461847553355424</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.193132542640971e-06</v>
+        <v>0.1395366738822126</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>9.103465597017324</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>5994296936.854861</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.2136833933141897</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>6.268536243104667e-06</v>
+        <v>0.3780150426920559</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>14.90496986170136</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>4602580371.870412</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.2646377144099753</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.72022863799985e-06</v>
+        <v>0.5580409475492765</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>14.17343759855038</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>5910403281.623812</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.2158300997778163</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>6.578748578986632e-06</v>
+        <v>0.3855995372995049</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>14.84400883977211</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>9444954576.900743</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.159466013069406</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.152389818414088e-06</v>
+        <v>0.1864604752353132</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>8.763146902329533</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>9504074796.024185</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.1648130147981649</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.299025252221655e-06</v>
+        <v>0.2053518823582424</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>9.113672778422714</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>5885635288.544563</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1824696650997505</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.014733948779291e-06</v>
+        <v>0.2677343138956016</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>12.49700949549603</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>7115590970.000039</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.1748569100227515</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>4.298488476294709e-05</v>
+        <v>0.2408378095026407</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>14.47824270819662</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>9831187789.708542</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.1558655152131346</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>6.382362327885281e-06</v>
+        <v>0.1737396132834237</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>8.915549457152656</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>8784973116.83971</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.1311935261123041</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>4.306117184220852e-06</v>
+        <v>0.0865713993422539</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>13.41142482443476</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>6239895363.403769</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.2220641900706721</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>3.038284904047632e-05</v>
+        <v>0.4076251029786796</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>8.395963489184588</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>4304494104.988257</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.2902661728708323</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2.587009251539285e-06</v>
+        <v>0.6485884482379486</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>14.53920373012587</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>9551901364.764759</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.1467114866961896</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.143927145235892e-05</v>
+        <v>0.1413976601102289</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>9.122770205943912</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>11170843806.87212</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.1066904587160023</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>4.764606489835638e-06</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>13.86863248890413</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>10508678988.15918</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.1378406050496115</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>3.243710090052061e-06</v>
+        <v>0.1100560886602932</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>7.476398844101343</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>4454344175.802079</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.3334259930043609</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.173739737847281e-06</v>
+        <v>0.8010757251934653</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>8.641224858471036</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>9447006066.018034</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.1624813755038685</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>3.263073564534628e-06</v>
+        <v>0.1971140044956901</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>8.930789712634967</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>4207288829.922719</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.2596174577394211</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>4.203649126565904e-06</v>
+        <v>0.540303958216555</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>12.7103730722484</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>9757751233.540239</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.1167722585592703</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>6.359042865972379e-06</v>
+        <v>0.03561984735233432</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>13.25902226961164</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>7650482207.191589</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.1780388167845967</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1.47002133935182e-05</v>
+        <v>0.2520797538883908</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>15.84986570160472</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>5774582449.369071</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.2658135983784783</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>7.968388948949581e-05</v>
+        <v>0.5621954445749343</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>8.930789712634967</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>4176778342.658441</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.2533611968803818</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2.192105611852273e-06</v>
+        <v>0.5182000620611312</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>12.31412642970828</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>8304019207.099973</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.1813759352473843</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.034778497927606e-05</v>
+        <v>0.263870074276523</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>8.763146902329533</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>10881935691.51362</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.1350382718348525</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>3.932969029713964e-06</v>
+        <v>0.1001552095621285</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>7.52538009917382</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>8626993990.554434</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.1584933965987527</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.555525210602804e-06</v>
+        <v>0.1830241393869904</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>9.084982227010929</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>8743906728.297283</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1381006027994476</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>5.996892394784211e-06</v>
+        <v>0.1109746825924366</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>14.05151555469188</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>11069007868.90928</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.1112216482796043</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3.040634143537596e-06</v>
+        <v>0.01600907408291441</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>14.3258401533735</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>9825324219.078564</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.1223674642375062</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>7.276657943302905e-06</v>
+        <v>0.05538817991814662</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>13.99055453276263</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>3822115724.918033</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.3056547797293745</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2.633286585400632e-06</v>
+        <v>0.7029576914075967</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>13.59430789022251</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>5693972714.678889</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.250255530084738</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>3.104241012637682e-06</v>
+        <v>0.5072274798924906</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>8.751840965115294</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>11128557946.1105</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.1193353834729462</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>2.519786817319289e-06</v>
+        <v>0.04467558339048465</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>15.4536190590646</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>9029084623.700001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.1209741270042938</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2.164592545134552e-05</v>
+        <v>0.05046540220693352</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>12.7103730722484</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>6294481164.497005</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1943377218919283</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2.357311614708983e-06</v>
+        <v>0.3096651573836803</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>14.23439862047962</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>8118831124.848602</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.1642193918677995</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>4.103615815164907e-06</v>
+        <v>0.2032545625846723</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>15.51458008099385</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>4467557553.329394</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.2656000859162324</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>7.451707512100327e-06</v>
+        <v>0.5614410870761489</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>13.80767146697488</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>10895188708.4329</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.1365569298353161</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>9.276438452155071e-06</v>
+        <v>0.1055207560913066</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>8.656465113953347</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>7772799426.739673</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.1496255205041137</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>2.527190475684493e-06</v>
+        <v>0.1516931868050092</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>13.53334686829326</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>9431152491.08931</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.1444237913963236</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>3.031089161708469e-06</v>
+        <v>0.1333150400784206</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>15.84986570160472</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>10119494606.44608</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.123728354892589</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>9.784352804862591e-06</v>
+        <v>0.06019632113805328</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>14.56968424109049</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>4018243154.662586</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.2770466363411199</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>3.989228615648302e-06</v>
+        <v>0.6018827130937042</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>12.9542171599654</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>8721047627.818203</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1387629367072672</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>2.871033223998708e-06</v>
+        <v>0.1133147640322168</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>14.0819960656565</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>6179085239.10575</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.1797387990330963</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>2.595020952289284e-06</v>
+        <v>0.2580859342465208</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>12.92373664900077</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>6760938961.683714</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.1696943023006206</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>7.278813814726421e-06</v>
+        <v>0.2225978819241262</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>13.35046380250551</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>5107125793.244377</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.2241326092876262</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.254189728220031e-05</v>
+        <v>0.4149330021548111</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>13.31998329154089</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>4544270786.274044</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.30319477091058</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>4.698788804159494e-06</v>
+        <v>0.6942662732111358</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>9.026296587131194</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>5759577451.297366</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.2196628799071044</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>2.940747547650915e-06</v>
+        <v>0.3991410720713409</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>14.72208679591362</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>4323103635.235002</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.3114351571464958</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>5.889140413394291e-06</v>
+        <v>0.7233802513113451</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>15.66698263581697</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>10180443510.53591</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.1067779462530289</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>7.854871348706262e-06</v>
+        <v>0.0003091008314552169</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>12.64941205031915</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>5818519826.597963</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.2021314947873364</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>3.734112962062703e-06</v>
+        <v>0.3372012129639317</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>13.68574942311638</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>9528514266.049877</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.1399241762958201</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>5.829201888134728e-06</v>
+        <v>0.1174175212310083</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>15.51458008099385</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>8086412786.684234</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.147709728838833</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2.256561735540757e-05</v>
+        <v>0.1449245336144046</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>13.89911299986876</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>5673081609.938773</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.2220885713670525</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>6.540504006238109e-06</v>
+        <v>0.4077112441507741</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>14.66112577398437</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>11156073151.34884</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.1289024453757845</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2.502000552060685e-06</v>
+        <v>0.07847681827782271</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>8.338218801021576</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>9259913813.494442</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.13606245321246</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>2.334997094218757e-05</v>
+        <v>0.1037737285665347</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>14.66112577398437</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>10904483841.55653</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.1090563365748681</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>3.534735699105798e-06</v>
+        <v>0.008358845592767684</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>13.83815197793951</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>9775124396.882708</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.156223522893171</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>3.811163538258448e-06</v>
+        <v>0.1750044845476924</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>8.885068946188031</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>8892065865.604362</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.1752727739038258</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2.777701505005914e-06</v>
+        <v>0.2423070915944791</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>9.067952011975777</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>8485669349.972437</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.184901690755261</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>3.058624202400829e-05</v>
+        <v>0.2763268652210565</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>9.128913033905027</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>4400240585.415583</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.2428756108341438</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>8.173210659333149e-06</v>
+        <v>0.4811536040701841</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>12.43604847356678</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>9368633735.376024</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.1490222490743965</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>3.666979959214011e-06</v>
+        <v>0.1495617780711909</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>5.076977965620658</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>6362729908.173402</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.1831962957444827</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>4.619449657961198e-06</v>
+        <v>0.2703015611182464</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>13.56382737925789</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>10503554646.81927</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.1618484567521906</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1.088640644078363e-05</v>
+        <v>0.1948778492782016</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>9.890925808020638</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_3.xlsx
+++ b/output/fit_clients/fit_round_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>11292309823.75937</v>
+        <v>7415923580.914006</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1101820858104816</v>
+        <v>0.1684819181815256</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01233621238767949</v>
+        <v>0.253132714455287</v>
       </c>
       <c r="I2" t="n">
-        <v>14.47824270819662</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7891428438693662</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15.78285687738732</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>8190325565.029963</v>
+        <v>11632155384.2915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1774973947564539</v>
+        <v>0.1353363446404723</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2501668642957143</v>
+        <v>0.1658205681584075</v>
       </c>
       <c r="I3" t="n">
-        <v>8.177206656575203</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.297845033106132</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6507918416196026</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.717991799285919</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>8506501470.073679</v>
+        <v>10791880787.63648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1745951770213632</v>
+        <v>0.121359290912519</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2399130847807204</v>
+        <v>0.1290021809797127</v>
       </c>
       <c r="I4" t="n">
-        <v>8.641224858471036</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8003705683958587</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.00741136791718</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>9622552361.501713</v>
+        <v>5474395200.061424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1508063563058162</v>
+        <v>0.1966553839569201</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1558651790741177</v>
+        <v>0.3273473230039856</v>
       </c>
       <c r="I5" t="n">
-        <v>8.868781996490004</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7546623009938584</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.09324601987717</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>7901207841.665234</v>
+        <v>8960736097.850693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1548187510711262</v>
+        <v>0.1502517700887249</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.170041307471775</v>
+        <v>0.2051108162877704</v>
       </c>
       <c r="I6" t="n">
-        <v>14.23439862047962</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8070288207069716</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.14057641413943</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10662085867.3358</v>
+        <v>11475529040.32552</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1103073192838468</v>
+        <v>0.1396943595686746</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01277867278899827</v>
+        <v>0.1773004611372964</v>
       </c>
       <c r="I7" t="n">
-        <v>13.68574942311638</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.280495119088649</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6592238265188932</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.903981411289215</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>9809356334.89653</v>
+        <v>10579350793.29355</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.155945375799842</v>
+        <v>0.1138935104376935</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1740217674575005</v>
+        <v>0.1093358048275254</v>
       </c>
       <c r="I8" t="n">
-        <v>8.900309201670343</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7805980434173563</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15.61196086834713</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9388973867.872164</v>
+        <v>5802884435.127962</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1238696769600845</v>
+        <v>0.2297597901362651</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06069562389648565</v>
+        <v>0.4145510261416697</v>
       </c>
       <c r="I9" t="n">
-        <v>13.53334686829326</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8046656152601299</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.0933123052026</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>3716740619.404071</v>
+        <v>7986873528.32867</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.389729286579124</v>
+        <v>0.1711960975906583</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.2602824121171075</v>
       </c>
       <c r="I10" t="n">
-        <v>7.639038735053625</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9464939956288837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.89150327347727</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8610952599601264</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.33040192572526</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7633809256.641013</v>
+        <v>12632516693.84755</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1410264854421718</v>
+        <v>0.1200573762739334</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1213120722177893</v>
+        <v>0.1255726744349114</v>
       </c>
       <c r="I11" t="n">
-        <v>12.52749000646065</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9391923716385544</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.967123226884078</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8993385978385094</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13.01964872988611</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>8049836256.557895</v>
+        <v>9541711474.070747</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1574919935752959</v>
+        <v>0.133416687714714</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1794860982248745</v>
+        <v>0.1607638034554517</v>
       </c>
       <c r="I12" t="n">
-        <v>14.75256730687824</v>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7935805035403067</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15.87161007080613</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>11059903713.08821</v>
+        <v>4359493459.192454</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.112023712153462</v>
+        <v>0.3286634888690511</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01884283325268319</v>
+        <v>0.6750833775388714</v>
       </c>
       <c r="I13" t="n">
-        <v>14.41728168626737</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9523265859560336</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.975288682260681</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.882228319263499</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12.6692777030093</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>3664117013.324485</v>
+        <v>12236872959.22355</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3781695030374538</v>
+        <v>0.131645139682991</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9591583118509076</v>
+        <v>0.1560971875428875</v>
       </c>
       <c r="I14" t="n">
-        <v>8.360745637096949</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2040126255110894</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.007225931416866</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.661480312367501</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.222380315933155</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>8498184427.482604</v>
+        <v>12446519852.50596</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1729166744425785</v>
+        <v>0.07891934947600884</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2339827939034688</v>
+        <v>0.01720678932821528</v>
       </c>
       <c r="I15" t="n">
-        <v>8.549783325577161</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7341917315710468</v>
+      </c>
+      <c r="N15" t="n">
+        <v>14.68383463142094</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7412753476.376842</v>
+        <v>4037369661.687665</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2109574849593315</v>
+        <v>0.330232210999148</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3683841790560022</v>
+        <v>0.6792157089934028</v>
       </c>
       <c r="I16" t="n">
-        <v>9.098432522940403</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8046656152601299</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.0933123052026</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>10064051855.97146</v>
+        <v>14838769348.07933</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1153004561787396</v>
+        <v>0.0967348225670612</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03041984567184927</v>
+        <v>0.06413634964936853</v>
       </c>
       <c r="I17" t="n">
-        <v>13.50286635732864</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9500059515487568</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.213250024307178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8819838380205525</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.42642673610387</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6323086295.072472</v>
+        <v>3231821350.066493</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1930442956236785</v>
+        <v>0.339599343873825</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3050953735204029</v>
+        <v>0.7038906320241693</v>
       </c>
       <c r="I18" t="n">
-        <v>14.203918109515</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7590393930981365</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15.18078786196273</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>8587867964.083879</v>
+        <v>4986125138.30768</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1531152767484674</v>
+        <v>0.2626678961460077</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.16402278932174</v>
+        <v>0.5012376349196741</v>
       </c>
       <c r="I19" t="n">
-        <v>15.30121650424148</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8003705683958587</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16.00741136791718</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5224448830.845752</v>
+        <v>4162508443.111037</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2933023558299334</v>
+        <v>0.355544107652041</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6593155381641738</v>
+        <v>0.74589236555726</v>
       </c>
       <c r="I20" t="n">
-        <v>8.915549457152656</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8302610095817887</v>
+      </c>
+      <c r="N20" t="n">
+        <v>16.60522019163577</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>11925185503.69001</v>
+        <v>10510346945.23128</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1186120416795462</v>
+        <v>0.09395598786090027</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04211995595639334</v>
+        <v>0.05681633685494038</v>
       </c>
       <c r="I21" t="n">
-        <v>8.648286912176344</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7353642521589115</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14.70728504317823</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9701973570.837902</v>
+        <v>4592471338.041208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1479519305550974</v>
+        <v>0.3445011288137524</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.145780252662187</v>
+        <v>0.7168029252225565</v>
       </c>
       <c r="I22" t="n">
-        <v>7.930650078526393</v>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.161741325385484</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.964954631291261</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6531167302419008</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.097379973546754</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>8132102688.821662</v>
+        <v>4327924256.033933</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1539661349482324</v>
+        <v>0.3256137900369371</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1670289429515754</v>
+        <v>0.6670498538389072</v>
       </c>
       <c r="I23" t="n">
-        <v>14.56968424109049</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9456520447779689</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.275118656073872</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8728047497100896</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.18097633812792</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>9802247206.349567</v>
+        <v>8196767640.520208</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1402922943127985</v>
+        <v>0.1818317872806517</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1187181131666009</v>
+        <v>0.2882989704376552</v>
       </c>
       <c r="I24" t="n">
-        <v>8.223883014400716</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9591518479235031</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5.099047947239886</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9007737203653311</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.91642646006674</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>10023388526.05736</v>
+        <v>6497818916.851443</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1319705353694708</v>
+        <v>0.1987373434878262</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08931663844260258</v>
+        <v>0.332831625603894</v>
       </c>
       <c r="I25" t="n">
-        <v>15.39265803713535</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7969924084595835</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15.93984816919167</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>5645793177.650091</v>
+        <v>4042015488.914481</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1939328957947632</v>
+        <v>0.3829919737432143</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3082348727113564</v>
+        <v>0.818195597743645</v>
       </c>
       <c r="I26" t="n">
-        <v>12.74085358321303</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1696876071254212</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.972900913031198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6428987788540999</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.8850746640508</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>4725338240.828137</v>
+        <v>10689978023.86559</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3098696718361023</v>
+        <v>0.143833965473766</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.717849259955097</v>
+        <v>0.1882050205635829</v>
       </c>
       <c r="I27" t="n">
-        <v>8.275812130835321</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838243751710803</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.987037681076857</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6396772932106023</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.806508183135189</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>4800927731.150856</v>
+        <v>12257864089.76579</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2400643510048672</v>
+        <v>0.1235131511422173</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4712211864916458</v>
+        <v>0.1346758845662725</v>
       </c>
       <c r="I28" t="n">
-        <v>13.41142482443476</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9648653781993632</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.945276284089234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9093776419998721</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.24227655590821</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>6022199283.699685</v>
+        <v>6149392052.828839</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2266119279203938</v>
+        <v>0.263242773609682</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4236926435491944</v>
+        <v>0.5027519784608694</v>
       </c>
       <c r="I29" t="n">
-        <v>8.452630194189197</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2572236769242652</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.060436982830042</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6637189790267365</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.213942597704687</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>5255751489.147487</v>
+        <v>12212154182.90815</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2930506366559256</v>
+        <v>0.1023119272231839</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6584261931371747</v>
+        <v>0.07882757160228696</v>
       </c>
       <c r="I30" t="n">
-        <v>8.961270223599591</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7891428438693662</v>
+      </c>
+      <c r="N30" t="n">
+        <v>15.78285687738732</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>4450547673.565145</v>
+        <v>8905233650.131006</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3307676465851146</v>
+        <v>0.11030269261779</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7916835635620868</v>
+        <v>0.09987686424143044</v>
       </c>
       <c r="I31" t="n">
-        <v>8.565023581059474</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7341917315710468</v>
+      </c>
+      <c r="N31" t="n">
+        <v>14.68383463142094</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>6965150327.76018</v>
+        <v>4588539641.335895</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1684797405338076</v>
+        <v>0.2266293660475486</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2183067329818322</v>
+        <v>0.40630485578451</v>
       </c>
       <c r="I32" t="n">
-        <v>13.65526891215176</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.746856664797465</v>
+      </c>
+      <c r="N32" t="n">
+        <v>14.9371332959493</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>9139799848.286011</v>
+        <v>10644277021.94925</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.120081886717226</v>
+        <v>0.1277177780319594</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04731304217985173</v>
+        <v>0.1457517224203452</v>
       </c>
       <c r="I33" t="n">
-        <v>12.77133409417765</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9468879579955123</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.001306238394132</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8589552870483823</v>
+      </c>
+      <c r="N33" t="n">
+        <v>12.17779950257351</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>8478910339.406067</v>
+        <v>13849181034.77521</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1658954244937246</v>
+        <v>0.08019400982709639</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2091761269105946</v>
+        <v>0.02056450256600681</v>
       </c>
       <c r="I34" t="n">
-        <v>8.016902196481208</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7617454448179382</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15.23490889635876</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>10224172675.2551</v>
+        <v>8519502391.055581</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.121436804662439</v>
+        <v>0.1878568978019504</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05210008131311238</v>
+        <v>0.3041703304742803</v>
       </c>
       <c r="I35" t="n">
-        <v>14.447762197232</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.243540750915323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6584676448386276</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.92581214585723</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4681403624.375084</v>
+        <v>9524318938.862991</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3301232331160719</v>
+        <v>0.1273348338904725</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7894067965407287</v>
+        <v>0.1447429700792935</v>
       </c>
       <c r="I36" t="n">
-        <v>8.991750734564217</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7821218271557032</v>
+      </c>
+      <c r="N36" t="n">
+        <v>15.64243654311406</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5319910059.562745</v>
+        <v>3564189694.183481</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2260000632602461</v>
+        <v>0.2777993050189851</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4215308742090403</v>
+        <v>0.5410968270847741</v>
       </c>
       <c r="I37" t="n">
-        <v>13.99055453276263</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7359488802047299</v>
+      </c>
+      <c r="N37" t="n">
+        <v>14.7189776040946</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>6895834692.353999</v>
+        <v>8828133820.471567</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1553590765723946</v>
+        <v>0.1427172056543089</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1719503229427184</v>
+        <v>0.185263249270528</v>
       </c>
       <c r="I38" t="n">
-        <v>12.46652898453141</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7911223096443696</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15.82244619288739</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>7090996415.901412</v>
+        <v>4947274232.857257</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.164381489093141</v>
+        <v>0.3033812963170149</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2038272657242568</v>
+        <v>0.6084849675860259</v>
       </c>
       <c r="I39" t="n">
-        <v>13.56382737925789</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9525864688972487</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.682818886594391</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.9008281313141915</v>
+      </c>
+      <c r="N39" t="n">
+        <v>12.33374373968944</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>9532563616.509947</v>
+        <v>8737279026.001886</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1461847553355424</v>
+        <v>0.1591909890780338</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1395366738822126</v>
+        <v>0.2286585275743973</v>
       </c>
       <c r="I40" t="n">
-        <v>9.103465597017324</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9543357153891107</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.204171182914966</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8712254124207153</v>
+      </c>
+      <c r="N40" t="n">
+        <v>12.22033706549934</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>5994296936.854861</v>
+        <v>14566271801.8317</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2136833933141897</v>
+        <v>0.08056191288785611</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3780150426920559</v>
+        <v>0.02153363365750343</v>
       </c>
       <c r="I41" t="n">
-        <v>14.90496986170136</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.774432397817342</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15.48864795634684</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4602580371.870412</v>
+        <v>5467687015.740701</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2646377144099753</v>
+        <v>0.2069570691852607</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5580409475492765</v>
+        <v>0.3544840460010165</v>
       </c>
       <c r="I42" t="n">
-        <v>14.17343759855038</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7660290381702094</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15.32058076340419</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>5910403281.623812</v>
+        <v>6940401327.4187</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2158300997778163</v>
+        <v>0.1426616953818509</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3855995372995049</v>
+        <v>0.1851170239827431</v>
       </c>
       <c r="I43" t="n">
-        <v>14.84400883977211</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7359488802047299</v>
+      </c>
+      <c r="N43" t="n">
+        <v>14.7189776040946</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>9444954576.900743</v>
+        <v>8592795452.464808</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.159466013069406</v>
+        <v>0.1795481713180369</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1864604752353132</v>
+        <v>0.2822834640000684</v>
       </c>
       <c r="I44" t="n">
-        <v>8.763146902329533</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.927965183688527</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6412927560370755</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.897889937052983</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>9504074796.024185</v>
+        <v>10954271039.10328</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1648130147981649</v>
+        <v>0.08990928163857299</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2053518823582424</v>
+        <v>0.04615649398733365</v>
       </c>
       <c r="I45" t="n">
-        <v>9.113672778422714</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7347785375867083</v>
+      </c>
+      <c r="N45" t="n">
+        <v>14.69557075173417</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>5885635288.544563</v>
+        <v>12807794865.15304</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1824696650997505</v>
+        <v>0.1214820877740072</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2677343138956016</v>
+        <v>0.1293256527555677</v>
       </c>
       <c r="I46" t="n">
-        <v>12.49700949549603</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.315837272066186</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6452904028835547</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7.589970785604907</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>7115590970.000039</v>
+        <v>6062765340.719606</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1748569100227515</v>
+        <v>0.181027031118729</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2408378095026407</v>
+        <v>0.2861790798991469</v>
       </c>
       <c r="I47" t="n">
-        <v>14.47824270819662</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7590393930981365</v>
+      </c>
+      <c r="N47" t="n">
+        <v>15.18078786196273</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>9831187789.708542</v>
+        <v>6013589726.469847</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1558655152131346</v>
+        <v>0.2539422274316767</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1737396132834237</v>
+        <v>0.4782524582601072</v>
       </c>
       <c r="I48" t="n">
-        <v>8.915549457152656</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.039637122672542</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6364175008079938</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7.688712893487334</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>8784973116.83971</v>
+        <v>10791192212.59063</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1311935261123041</v>
+        <v>0.1046183839337779</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0865713993422539</v>
+        <v>0.08490324519089962</v>
       </c>
       <c r="I49" t="n">
-        <v>13.41142482443476</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7654966420042966</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15.30993284008593</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>6239895363.403769</v>
+        <v>9116823174.014044</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2220641900706721</v>
+        <v>0.1496905406578304</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4076251029786796</v>
+        <v>0.2036324244260132</v>
       </c>
       <c r="I50" t="n">
-        <v>8.395963489184588</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9441025872471736</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.865037199042164</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8593156031402139</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12.32127486376212</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>4304494104.988257</v>
+        <v>11913542196.38355</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2902661728708323</v>
+        <v>0.1130114316805542</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6485884482379486</v>
+        <v>0.1070122309302951</v>
       </c>
       <c r="I51" t="n">
-        <v>14.53920373012587</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8070288207069716</v>
+      </c>
+      <c r="N51" t="n">
+        <v>16.14057641413943</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>9551901364.764759</v>
+        <v>9851257326.28443</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1467114866961896</v>
+        <v>0.1138026226366824</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1413976601102289</v>
+        <v>0.1090963879724013</v>
       </c>
       <c r="I52" t="n">
-        <v>9.122770205943912</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7638942474837517</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15.27788494967503</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>11170843806.87212</v>
+        <v>10670465168.38814</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1066904587160023</v>
+        <v>0.1296136483437787</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.1507458283699815</v>
       </c>
       <c r="I53" t="n">
-        <v>13.86863248890413</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9499639814584941</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.879949220701993</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8671281254542411</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12.46261328838283</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>10508678988.15918</v>
+        <v>15376699189.88213</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1378406050496115</v>
+        <v>0.1035715858347495</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1100560886602932</v>
+        <v>0.08214576722321698</v>
       </c>
       <c r="I54" t="n">
-        <v>7.476398844101343</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1669714153500969</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.970184721255873</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6561868561967428</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.153552402678983</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>4454344175.802079</v>
+        <v>7712143052.629068</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3334259930043609</v>
+        <v>0.1715206708398725</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8010757251934653</v>
+        <v>0.2611374037190585</v>
       </c>
       <c r="I55" t="n">
-        <v>8.641224858471036</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8027633235130384</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16.05526647026077</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>9447006066.018034</v>
+        <v>14308819174.6452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1624813755038685</v>
+        <v>0.08750326667197163</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1971140044956901</v>
+        <v>0.03981856381104067</v>
       </c>
       <c r="I56" t="n">
-        <v>8.930789712634967</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7896387963820396</v>
+      </c>
+      <c r="N56" t="n">
+        <v>15.79277592764079</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>4207288829.922719</v>
+        <v>4227494381.510746</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2596174577394211</v>
+        <v>0.2329726668135836</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.540303958216555</v>
+        <v>0.4230143932979634</v>
       </c>
       <c r="I57" t="n">
-        <v>12.7103730722484</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.7347785375867083</v>
+      </c>
+      <c r="N57" t="n">
+        <v>14.69557075173417</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>9757751233.540239</v>
+        <v>8267307414.075678</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1167722585592703</v>
+        <v>0.1958053497858211</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03561984735233432</v>
+        <v>0.3251081610292373</v>
       </c>
       <c r="I58" t="n">
-        <v>13.25902226961164</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2010660388926516</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.004279344798428</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.6637189790267365</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.270100235736301</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>7650482207.191589</v>
+        <v>4842563356.79976</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1780388167845967</v>
+        <v>0.326168612287154</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2520797538883908</v>
+        <v>0.6685113678905409</v>
       </c>
       <c r="I59" t="n">
-        <v>15.84986570160472</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.212220618773809</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6523439143697192</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.834657668620574</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>5774582449.369071</v>
+        <v>14040081395.17951</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2658135983784783</v>
+        <v>0.07238728119830858</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5621954445749343</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>8.930789712634967</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7417364588122121</v>
+      </c>
+      <c r="N60" t="n">
+        <v>14.83472917624424</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>4176778342.658441</v>
+        <v>5215994685.029722</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2533611968803818</v>
+        <v>0.1923365399277211</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5182000620611312</v>
+        <v>0.315970614097628</v>
       </c>
       <c r="I61" t="n">
-        <v>12.31412642970828</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7388558921984018</v>
+      </c>
+      <c r="N61" t="n">
+        <v>14.77711784396804</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>8304019207.099973</v>
+        <v>5542817500.412841</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1813759352473843</v>
+        <v>0.2750379170677102</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.263870074276523</v>
+        <v>0.5338227725723209</v>
       </c>
       <c r="I62" t="n">
-        <v>8.763146902329533</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.9508139119341842</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5.515942080782629</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.9062863721300343</v>
+      </c>
+      <c r="N62" t="n">
+        <v>12.60978536181806</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>10881935691.51362</v>
+        <v>3453818340.685466</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1350382718348525</v>
+        <v>0.452008845285755</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1001552095621285</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>7.52538009917382</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.168188741701523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6468734005171495</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.769279268641466</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>8626993990.554434</v>
+        <v>12965134687.85301</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1584933965987527</v>
+        <v>0.09616788949891517</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1830241393869904</v>
+        <v>0.06264293325320341</v>
       </c>
       <c r="I64" t="n">
-        <v>9.084982227010929</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7886461630087642</v>
+      </c>
+      <c r="N64" t="n">
+        <v>15.77292326017528</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>8743906728.297283</v>
+        <v>3674520931.115613</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1381006027994476</v>
+        <v>0.2730223582358021</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1109746825924366</v>
+        <v>0.5285133828469157</v>
       </c>
       <c r="I65" t="n">
-        <v>14.05151555469188</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.7388558921984018</v>
+      </c>
+      <c r="N65" t="n">
+        <v>14.77711784396804</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11069007868.90928</v>
+        <v>5682491795.220296</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1112216482796043</v>
+        <v>0.2143454656678093</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01600907408291441</v>
+        <v>0.373946577062204</v>
       </c>
       <c r="I66" t="n">
-        <v>14.3258401533735</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.783133847336613</v>
+      </c>
+      <c r="N66" t="n">
+        <v>15.66267694673226</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>9825324219.078564</v>
+        <v>5020980564.215433</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1223674642375062</v>
+        <v>0.2008502397295339</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05538817991814662</v>
+        <v>0.3383974217587746</v>
       </c>
       <c r="I67" t="n">
-        <v>13.99055453276263</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.7400112595374182</v>
+      </c>
+      <c r="N67" t="n">
+        <v>14.80022519074836</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>3822115724.918033</v>
+        <v>5942391009.885942</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3056547797293745</v>
+        <v>0.2261290224363395</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.7029576914075967</v>
+        <v>0.4049868494894464</v>
       </c>
       <c r="I68" t="n">
-        <v>13.59430789022251</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.8065574711190797</v>
+      </c>
+      <c r="N68" t="n">
+        <v>16.13114942238159</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>5693972714.678889</v>
+        <v>11930502452.76964</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.250255530084738</v>
+        <v>0.1031903982982879</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5072274798924906</v>
+        <v>0.08114164213517597</v>
       </c>
       <c r="I69" t="n">
-        <v>8.751840965115294</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7856506357186341</v>
+      </c>
+      <c r="N69" t="n">
+        <v>15.71301271437268</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>11128557946.1105</v>
+        <v>7680682536.828103</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1193353834729462</v>
+        <v>0.1374375473714004</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.04467558339048465</v>
+        <v>0.1713555612402128</v>
       </c>
       <c r="I70" t="n">
-        <v>15.4536190590646</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.750225156370824</v>
+      </c>
+      <c r="N70" t="n">
+        <v>15.00450312741648</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>9029084623.700001</v>
+        <v>3699232619.14653</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1209741270042938</v>
+        <v>0.4057356280412242</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0.05046540220693352</v>
+        <v>0.8781069843706988</v>
       </c>
       <c r="I71" t="n">
-        <v>12.7103730722484</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8337704431101265</v>
+      </c>
+      <c r="N71" t="n">
+        <v>16.67540886220253</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6294481164.497005</v>
+        <v>9776111313.118753</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1943377218919283</v>
+        <v>0.1425429227805554</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3096651573836803</v>
+        <v>0.1848041529223728</v>
       </c>
       <c r="I72" t="n">
-        <v>14.23439862047962</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9427124030555649</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.1219639163688</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8670819273456311</v>
+      </c>
+      <c r="N72" t="n">
+        <v>12.21967463054382</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>8118831124.848602</v>
+        <v>3609263152.309745</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1642193918677995</v>
+        <v>0.4143980715406817</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2032545625846723</v>
+        <v>0.9009256130233697</v>
       </c>
       <c r="I73" t="n">
-        <v>15.51458008099385</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9494054430817949</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.154409370758072</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8981060066532405</v>
+      </c>
+      <c r="N73" t="n">
+        <v>12.80771076230674</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>4467557553.329394</v>
+        <v>12691014957.12049</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2656000859162324</v>
+        <v>0.08008211505808492</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5614410870761489</v>
+        <v>0.0202697491073079</v>
       </c>
       <c r="I74" t="n">
-        <v>13.80767146697488</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7417364588122121</v>
+      </c>
+      <c r="N74" t="n">
+        <v>14.83472917624424</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>10895188708.4329</v>
+        <v>6701771486.516051</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1365569298353161</v>
+        <v>0.1547767544875265</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1055207560913066</v>
+        <v>0.2170305406313518</v>
       </c>
       <c r="I75" t="n">
-        <v>8.656465113953347</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.746291791212503</v>
+      </c>
+      <c r="N75" t="n">
+        <v>14.92583582425006</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>7772799426.739673</v>
+        <v>15206080602.7071</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1496255205041137</v>
+        <v>0.1038724054717168</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1516931868050092</v>
+        <v>0.08293818700498153</v>
       </c>
       <c r="I76" t="n">
-        <v>13.53334686829326</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.172144103664966</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.6523439143697192</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7.874734183729418</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>9431152491.08931</v>
+        <v>9652209231.02894</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1444237913963236</v>
+        <v>0.1245621578669232</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1333150400784206</v>
+        <v>0.1374391805008106</v>
       </c>
       <c r="I77" t="n">
-        <v>15.84986570160472</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7800885699111975</v>
+      </c>
+      <c r="N77" t="n">
+        <v>15.60177139822395</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10119494606.44608</v>
+        <v>12443207884.31224</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.123728354892589</v>
+        <v>0.09641248712982571</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.06019632113805328</v>
+        <v>0.0632872528968952</v>
       </c>
       <c r="I78" t="n">
-        <v>14.56968424109049</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7795783188365958</v>
+      </c>
+      <c r="N78" t="n">
+        <v>15.59156637673192</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4018243154.662586</v>
+        <v>11005902819.59911</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2770466363411199</v>
+        <v>0.1268532798157902</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6018827130937042</v>
+        <v>0.1434744592247013</v>
       </c>
       <c r="I79" t="n">
-        <v>12.9542171599654</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.9362944848509266</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5.168386631842132</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8651021797608057</v>
+      </c>
+      <c r="N79" t="n">
+        <v>12.13365696337398</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>8721047627.818203</v>
+        <v>8732507063.410679</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1387629367072672</v>
+        <v>0.168576695021308</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1133147640322168</v>
+        <v>0.2533823758253155</v>
       </c>
       <c r="I80" t="n">
-        <v>14.0819960656565</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.9483832687810961</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.325169192522722</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.891353162744718</v>
+      </c>
+      <c r="N80" t="n">
+        <v>12.50189406237164</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6179085239.10575</v>
+        <v>11054799417.98502</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1797387990330963</v>
+        <v>0.0916980843949831</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2580859342465208</v>
+        <v>0.05086856233547957</v>
       </c>
       <c r="I81" t="n">
-        <v>12.92373664900077</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.7411624331447804</v>
+      </c>
+      <c r="N81" t="n">
+        <v>14.82324866289561</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>6760938961.683714</v>
+        <v>14766113670.37864</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1696943023006206</v>
+        <v>0.08798641734732664</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2225978819241262</v>
+        <v>0.04109128043480895</v>
       </c>
       <c r="I82" t="n">
-        <v>13.35046380250551</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.7984442760265502</v>
+      </c>
+      <c r="N82" t="n">
+        <v>15.968885520531</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>5107125793.244377</v>
+        <v>3911258229.547616</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2241326092876262</v>
+        <v>0.3803925572493033</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4149330021548111</v>
+        <v>0.8113482088178879</v>
       </c>
       <c r="I83" t="n">
-        <v>13.31998329154089</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.957639271813003</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.238075218637522</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8994459396908703</v>
+      </c>
+      <c r="N83" t="n">
+        <v>12.75084357517988</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>4544270786.274044</v>
+        <v>10157923396.21388</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.30319477091058</v>
+        <v>0.156009342479455</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6942662732111358</v>
+        <v>0.2202774267635754</v>
       </c>
       <c r="I84" t="n">
-        <v>9.026296587131194</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.179033107752344</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.653887418262425</v>
+      </c>
+      <c r="N84" t="n">
+        <v>7.898715257496155</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>5759577451.297366</v>
+        <v>11791570946.69423</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2196628799071044</v>
+        <v>0.1066276245704552</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3991410720713409</v>
+        <v>0.09019599151185029</v>
       </c>
       <c r="I85" t="n">
-        <v>14.72208679591362</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7906285267028883</v>
+      </c>
+      <c r="N85" t="n">
+        <v>15.81257053405777</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>4323103635.235002</v>
+        <v>4216174268.099289</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3114351571464958</v>
+        <v>0.3659290655211757</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7233802513113451</v>
+        <v>0.7732484455368013</v>
       </c>
       <c r="I86" t="n">
-        <v>15.66698263581697</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5.062398506020755</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.6412927560370755</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7.763456614720755</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>10180443510.53591</v>
+        <v>4401453221.416224</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1067779462530289</v>
+        <v>0.3535008965741919</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0003091008314552169</v>
+        <v>0.7405101342217966</v>
       </c>
       <c r="I87" t="n">
-        <v>12.64941205031915</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5.080390694842968</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.6452904028835547</v>
+      </c>
+      <c r="N87" t="n">
+        <v>7.825417362828126</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>5818519826.597963</v>
+        <v>3745546611.095492</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2021314947873364</v>
+        <v>0.3091058529535631</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3372012129639317</v>
+        <v>0.6235646078859894</v>
       </c>
       <c r="I88" t="n">
-        <v>13.68574942311638</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7713061419407972</v>
+      </c>
+      <c r="N88" t="n">
+        <v>15.42612283881594</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>9528514266.049877</v>
+        <v>9841366537.210165</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1399241762958201</v>
+        <v>0.1538411778766236</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1174175212310083</v>
+        <v>0.2145660425643048</v>
       </c>
       <c r="I89" t="n">
-        <v>15.51458008099385</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9479296935562413</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.978207836093654</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9023349217229191</v>
+      </c>
+      <c r="N89" t="n">
+        <v>13.06849059836473</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>8086412786.684234</v>
+        <v>12372272874.60651</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.147709728838833</v>
+        <v>0.09124896463584549</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1449245336144046</v>
+        <v>0.04968549002972891</v>
       </c>
       <c r="I90" t="n">
-        <v>13.89911299986876</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7654966420042966</v>
+      </c>
+      <c r="N90" t="n">
+        <v>15.30993284008593</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>5673081609.938773</v>
+        <v>13711187464.96406</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2220885713670525</v>
+        <v>0.08673231717083209</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4077112441507741</v>
+        <v>0.0377877268563677</v>
       </c>
       <c r="I91" t="n">
-        <v>14.66112577398437</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7775294808291106</v>
+      </c>
+      <c r="N91" t="n">
+        <v>15.55058961658221</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>11156073151.34884</v>
+        <v>5339895539.924059</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1289024453757845</v>
+        <v>0.1859116536227445</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07847681827782271</v>
+        <v>0.2990461637692569</v>
       </c>
       <c r="I92" t="n">
-        <v>8.338218801021576</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.7365324266061474</v>
+      </c>
+      <c r="N92" t="n">
+        <v>14.73064853212295</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>9259913813.494442</v>
+        <v>12527046924.39836</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13606245321246</v>
+        <v>0.08280310964428014</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1037737285665347</v>
+        <v>0.0274373993242709</v>
       </c>
       <c r="I93" t="n">
-        <v>14.66112577398437</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.746291791212503</v>
+      </c>
+      <c r="N93" t="n">
+        <v>14.92583582425006</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>10904483841.55653</v>
+        <v>6596832150.4491</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1090563365748681</v>
+        <v>0.2032987423984554</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.008358845592767684</v>
+        <v>0.3448472731385489</v>
       </c>
       <c r="I94" t="n">
-        <v>13.83815197793951</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8060854779245505</v>
+      </c>
+      <c r="N94" t="n">
+        <v>16.12170955849101</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9775124396.882708</v>
+        <v>5281587678.268137</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.156223522893171</v>
+        <v>0.2499575204312223</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1750044845476924</v>
+        <v>0.4677559338858057</v>
       </c>
       <c r="I95" t="n">
-        <v>8.885068946188031</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.8022861035213873</v>
+      </c>
+      <c r="N95" t="n">
+        <v>16.04572207042775</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8892065865.604362</v>
+        <v>9571398978.220379</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1752727739038258</v>
+        <v>0.1581803687679417</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2423070915944791</v>
+        <v>0.2259963492218017</v>
       </c>
       <c r="I96" t="n">
-        <v>9.067952011975777</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8359464549987722</v>
+      </c>
+      <c r="N96" t="n">
+        <v>16.71892909997544</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>8485669349.972437</v>
+        <v>6907680594.523279</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.184901690755261</v>
+        <v>0.2199357916468412</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2763268652210565</v>
+        <v>0.3886726266544347</v>
       </c>
       <c r="I97" t="n">
-        <v>9.128913033905027</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9543309870583839</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1253997615578458</v>
+      </c>
+      <c r="L97" t="n">
+        <v>4.928613067463623</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.9063857346731243</v>
+      </c>
+      <c r="N97" t="n">
+        <v>13.19910162599886</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4400240585.415583</v>
+        <v>4058062715.683122</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2428756108341438</v>
+        <v>0.2730371725695428</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4811536040701841</v>
+        <v>0.5285524067990358</v>
       </c>
       <c r="I98" t="n">
-        <v>12.43604847356678</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7612060284836171</v>
+      </c>
+      <c r="N98" t="n">
+        <v>15.22412056967234</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>9368633735.376024</v>
+        <v>13897952595.1561</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1490222490743965</v>
+        <v>0.07859327642121169</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1495617780711909</v>
+        <v>0.01634784693493744</v>
       </c>
       <c r="I99" t="n">
-        <v>5.076977965620658</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7579506423786951</v>
+      </c>
+      <c r="N99" t="n">
+        <v>15.1590128475739</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>6362729908.173402</v>
+        <v>7665820158.82589</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1831962957444827</v>
+        <v>0.1715320412892908</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2703015611182464</v>
+        <v>0.2611673557831504</v>
       </c>
       <c r="I100" t="n">
-        <v>13.56382737925789</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8013296714949851</v>
+      </c>
+      <c r="N100" t="n">
+        <v>16.0265934298997</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10503554646.81927</v>
+        <v>12594380914.82415</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1618484567521906</v>
+        <v>0.1256204311033489</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1948778492782016</v>
+        <v>0.1402268863019015</v>
       </c>
       <c r="I101" t="n">
-        <v>9.890925808020638</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1970149540076206</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5.000228259913397</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.6531167302419008</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.062106344924617</v>
       </c>
     </row>
   </sheetData>
